--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail3 Features.xlsx
@@ -4434,7 +4434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,29 +4445,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4488,115 +4486,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4613,72 +4601,66 @@
         <v>8.31243110830774e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.343596603091015</v>
+        <v>5.857408734342145e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9.108254725004565</v>
+        <v>1.33372687111205e-05</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.857408734342145e-06</v>
+        <v>0.09025663034561086</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.33372687111205e-05</v>
+        <v>0.3918102537815852</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.09025663034561086</v>
+        <v>0.1612457038834952</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3918102537815852</v>
+        <v>1.823071152391478</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1612457038834952</v>
+        <v>1.863187591041083</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.800589429978987</v>
+        <v>4.191960082678863</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.863187591041083</v>
+        <v>1.707361561079552e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.191960082678863</v>
+        <v>42853975.90435272</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.707361561079552e-14</v>
+        <v>2.728018289190125e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>42853975.90435272</v>
+        <v>31.35506762769631</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.728018289190125e-06</v>
+        <v>0.000116180609210114</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>31.35506762769631</v>
+        <v>7.293175139673706</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000116180609210114</v>
+        <v>1.304927284099893</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.293175139673706</v>
+        <v>0.006179693496465815</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.304927284099893</v>
+        <v>3.218571128032521</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.006179693496465815</v>
+        <v>0.9537676582560289</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.218571128032521</v>
+        <v>1.635062590131386</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9537676582560289</v>
+        <v>30</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.635062590131386</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2559196005258095</v>
       </c>
     </row>
@@ -4693,72 +4675,66 @@
         <v>6.448621074922141e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.028500934637677</v>
+        <v>4.039766502274795e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2.713765969531984</v>
+        <v>1.339658290869594e-05</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.039766502274795e-06</v>
+        <v>0.07039818135655496</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.339658290869594e-05</v>
+        <v>0.3603013933742309</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.07039818135655496</v>
+        <v>0.1344069117619874</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3603013933742309</v>
+        <v>1.769741650081889</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1344069117619874</v>
+        <v>1.700275208104973</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.721361631168721</v>
+        <v>4.312581284808777</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.700275208104973</v>
+        <v>2.540972463331224e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.312581284808777</v>
+        <v>30691250.65683182</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.540972463331224e-14</v>
+        <v>3.772386371038287e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>30691250.65683182</v>
+        <v>23.93476296499201</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.772386371038287e-06</v>
+        <v>0.0001367876214137284</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>23.93476296499201</v>
+        <v>7.761962032380076</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001367876214137284</v>
+        <v>1.533973545926782</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.761962032380076</v>
+        <v>0.008241188082459164</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.533973545926782</v>
+        <v>3.172697867038895</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.008241188082459164</v>
+        <v>0.9522786461954126</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.172697867038895</v>
+        <v>1.688225156375631</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9522786461954126</v>
+        <v>31</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.688225156375631</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2510643550183941</v>
       </c>
     </row>
@@ -4773,72 +4749,66 @@
         <v>5.559018698032505e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.1071514378617135</v>
+        <v>2.735332028291297e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.8740494546138806</v>
+        <v>1.343049534934181e-05</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.735332028291297e-06</v>
+        <v>0.04258761396436308</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.343049534934181e-05</v>
+        <v>0.2944717082846587</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.04258761396436308</v>
+        <v>0.08827408824621963</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2944717082846587</v>
+        <v>1.763017461997096</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08827408824621963</v>
+        <v>1.677094657878044</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.708828805192557</v>
+        <v>3.627790487802883</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.677094657878044</v>
+        <v>3.590791189197114e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.627790487802883</v>
+        <v>22174485.03192911</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.590791189197114e-14</v>
+        <v>5.222642670542588e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>22174485.03192911</v>
+        <v>17.65619987176942</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.222642670542588e-06</v>
+        <v>0.0001916885121982633</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>17.65619987176942</v>
+        <v>9.452278925428569</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001916885121982633</v>
+        <v>1.581168589878643</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.452278925428569</v>
+        <v>0.01712652070440888</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.581168589878643</v>
+        <v>2.918780027841591</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01712652070440888</v>
+        <v>0.9526864351291403</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.918780027841591</v>
+        <v>1.707563232539566</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9526864351291403</v>
+        <v>31</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.707563232539566</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.229330893834537</v>
       </c>
     </row>
@@ -4853,72 +4823,66 @@
         <v>5.259967424892701e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.1653970160239465</v>
+        <v>1.820523957382003e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.56763566815853</v>
+        <v>1.34457978428818e-05</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.820523957382003e-06</v>
+        <v>0.01514022509177756</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.34457978428818e-05</v>
+        <v>0.2179588774018825</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.01514022509177756</v>
+        <v>0.04760437678707728</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2179588774018825</v>
+        <v>1.76895551934999</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04760437678707728</v>
+        <v>1.655841420061629</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.712130944570995</v>
+        <v>3.585423069615212</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.655841420061629</v>
+        <v>3.676154278444672e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.585423069615212</v>
+        <v>22698834.5571149</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.676154278444672e-14</v>
+        <v>5.127727530857129e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>22698834.5571149</v>
+        <v>18.94091033740604</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.127727530857129e-06</v>
+        <v>0.0001618252040896843</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>18.94091033740604</v>
+        <v>10.28468972170465</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001618252040896843</v>
+        <v>1.252568801740863</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.28468972170465</v>
+        <v>0.01711703550290814</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.252568801740863</v>
+        <v>2.937312039292246</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01711703550290814</v>
+        <v>0.9521797207203011</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.937312039292246</v>
+        <v>1.754191957784577</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9521797207203011</v>
+        <v>31</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.754191957784577</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2167267349330529</v>
       </c>
     </row>
@@ -4933,72 +4897,66 @@
         <v>5.227058865096662e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.1842372488633807</v>
+        <v>1.439448262340412e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.59209327071999</v>
+        <v>1.344797783684859e-05</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.439448262340412e-06</v>
+        <v>-0.005355127634501672</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.344797783684859e-05</v>
+        <v>0.1605139930108198</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.005355127634501672</v>
+        <v>0.02573936637037483</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1605139930108198</v>
+        <v>1.807580513122689</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02573936637037483</v>
+        <v>1.811235502661057</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.765186918817969</v>
+        <v>3.638169939937044</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.811235502661057</v>
+        <v>3.570331847901937e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.638169939937044</v>
+        <v>23429306.15759991</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.570331847901937e-14</v>
+        <v>5.022407035443633e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>23429306.15759991</v>
+        <v>19.59870783745721</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.022407035443633e-06</v>
+        <v>0.0001389367374365343</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>19.59870783745721</v>
+        <v>9.992517167360463</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001389367374365343</v>
+        <v>1.138015811678696</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.992517167360463</v>
+        <v>0.01387288871603379</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.138015811678696</v>
+        <v>2.902287376815539</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01387288871603379</v>
+        <v>0.9529898260283997</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.902287376815539</v>
+        <v>1.679992266645039</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9529898260283997</v>
+        <v>30</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.679992266645039</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2153830822603543</v>
       </c>
     </row>
@@ -5013,72 +4971,66 @@
         <v>5.280985340972404e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1887667669128011</v>
+        <v>1.439448262340412e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.604956512770978</v>
+        <v>1.344131620417383e-05</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.439448262340412e-06</v>
+        <v>-0.01904056499496641</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.344131620417383e-05</v>
+        <v>0.126228469609043</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.01904056499496641</v>
+        <v>0.01627191529994922</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.126228469609043</v>
+        <v>1.819399373138031</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01627191529994922</v>
+        <v>1.799402904283725</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.778067717770457</v>
+        <v>3.900291444038227</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.799402904283725</v>
+        <v>3.1065648622542e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.900291444038227</v>
+        <v>26801787.55724304</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.1065648622542e-14</v>
+        <v>4.397172683088513e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>26801787.55724304</v>
+        <v>22.31556806103152</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.397172683088513e-06</v>
+        <v>0.0001345792523385474</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>22.31556806103152</v>
+        <v>9.480016102239162</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001345792523385474</v>
+        <v>1.197420113538153</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.480016102239162</v>
+        <v>0.01209473232623883</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.197420113538153</v>
+        <v>2.882388474500574</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01209473232623883</v>
+        <v>0.9528863920416893</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.882388474500574</v>
+        <v>1.666048236031946</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9528863920416893</v>
+        <v>32</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.666048236031946</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.214858821339021</v>
       </c>
     </row>
@@ -5093,72 +5045,66 @@
         <v>5.351087012872536e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.2182874644086789</v>
+        <v>1.483348284929769e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.61394376924577</v>
+        <v>1.342840423180354e-05</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.483348284929769e-06</v>
+        <v>-0.02905316508865987</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.342840423180354e-05</v>
+        <v>0.1027377696112713</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.02905316508865987</v>
+        <v>0.01138441407219852</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1027377696112713</v>
+        <v>1.83303855301592</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01138441407219852</v>
+        <v>1.84264710416681</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.798844512625369</v>
+        <v>3.988525602582975</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.84264710416681</v>
+        <v>2.970638313526261e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.988525602582975</v>
+        <v>27951893.8581649</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.970638313526261e-14</v>
+        <v>4.232916386191985e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>27951893.8581649</v>
+        <v>23.20984579367524</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.232916386191985e-06</v>
+        <v>0.0001313218151248669</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>23.20984579367524</v>
+        <v>8.253086841569326</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001313218151248669</v>
+        <v>1.277169400150539</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.253086841569326</v>
+        <v>0.008944780892273232</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.277169400150539</v>
+        <v>3.059300483719384</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.008944780892273232</v>
+        <v>0.9527483753315398</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.059300483719384</v>
+        <v>1.683096552731537</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9527483753315398</v>
+        <v>79</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.683096552731537</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2080046906035195</v>
       </c>
     </row>
@@ -5173,72 +5119,66 @@
         <v>5.408651976227132e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.2660675364701527</v>
+        <v>1.531506122942003e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.59402446246678</v>
+        <v>1.341044219029216e-05</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.531506122942003e-06</v>
+        <v>-0.03748700836777639</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.341044219029216e-05</v>
+        <v>0.08196778581239138</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03748700836777639</v>
+        <v>0.008112478219481531</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.08196778581239138</v>
+        <v>1.837723848493262</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.008112478219481531</v>
+        <v>1.778281507323055</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.804562071174701</v>
+        <v>3.98946590929885</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.778281507323055</v>
+        <v>2.969238135140449e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.98946590929885</v>
+        <v>27840037.14924516</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.969238135140449e-14</v>
+        <v>4.250070325646107e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>27840037.14924516</v>
+        <v>23.01360478539529</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.250070325646107e-06</v>
+        <v>0.0001466238270002753</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>23.01360478539529</v>
+        <v>7.729418191584587</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001466238270002753</v>
+        <v>1.631931371182312</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.729418191584587</v>
+        <v>0.008759880076141169</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.631931371182312</v>
+        <v>3.109661642291507</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008759880076141169</v>
+        <v>0.9526594732139301</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.109661642291507</v>
+        <v>1.648753929201109</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9526594732139301</v>
+        <v>76</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.648753929201109</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1962945257450532</v>
       </c>
     </row>
@@ -5253,72 +5193,66 @@
         <v>5.436312953486553e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.319447014914177</v>
+        <v>1.578044379230436e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.543848357537051</v>
+        <v>1.338802480450661e-05</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.578044379230436e-06</v>
+        <v>-0.04477283781344474</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.338802480450661e-05</v>
+        <v>0.06277042361780587</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04477283781344474</v>
+        <v>0.005939084828710368</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.06277042361780587</v>
+        <v>1.832009561288871</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.005939084828710368</v>
+        <v>1.748284496765664</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.799290696837096</v>
+        <v>3.990267175994951</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.748284496765664</v>
+        <v>2.968045777510017e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.990267175994951</v>
+        <v>26836583.0985655</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.968045777510017e-14</v>
+        <v>4.386105384881159e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>26836583.0985655</v>
+        <v>21.37593076124712</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.386105384881159e-06</v>
+        <v>0.0001547860578363563</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>21.37593076124712</v>
+        <v>9.057020495727082</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001547860578363563</v>
+        <v>1.373136251822471</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.057020495727082</v>
+        <v>0.01269704154586187</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.373136251822471</v>
+        <v>2.999770325750631</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01269704154586187</v>
+        <v>0.9539942919316577</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.999770325750631</v>
+        <v>1.629559657746819</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9539942919316577</v>
+        <v>64</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.629559657746819</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1958828369062647</v>
       </c>
     </row>
@@ -5333,72 +5267,66 @@
         <v>5.43134130724477e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.3666081423183739</v>
+        <v>1.622171009925492e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.481148003523451</v>
+        <v>1.336229199288691e-05</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.622171009925492e-06</v>
+        <v>-0.04932584563793239</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.336229199288691e-05</v>
+        <v>0.05453151355314088</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04932584563793239</v>
+        <v>0.005406145053335628</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.05453151355314088</v>
+        <v>1.832552834003691</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.005406145053335628</v>
+        <v>1.715652533256246</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.799755271384107</v>
+        <v>4.004266053750388</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.715652533256246</v>
+        <v>2.947329530662312e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.004266053750388</v>
+        <v>27020716.9565703</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.947329530662312e-14</v>
+        <v>4.36084512765313e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>27020716.9565703</v>
+        <v>21.51901716509729</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.36084512765313e-06</v>
+        <v>0.0001457815803881797</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>21.51901716509729</v>
+        <v>10.34982562629458</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001457815803881797</v>
+        <v>1.133428368307853</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.34982562629458</v>
+        <v>0.01561596114574632</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.133428368307853</v>
+        <v>2.834823890505298</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01561596114574632</v>
+        <v>0.9540787379089631</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.834823890505298</v>
+        <v>1.688228101276766</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9540787379089631</v>
+        <v>64</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.688228101276766</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2060197376270968</v>
       </c>
     </row>
@@ -5413,72 +5341,66 @@
         <v>5.410169827455319e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.4060895304360492</v>
+        <v>1.662558406683986e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.414738200576817</v>
+        <v>1.333495974763974e-05</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.662558406683986e-06</v>
+        <v>-0.05121640403170533</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.333495974763974e-05</v>
+        <v>0.05385050776498481</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05121640403170533</v>
+        <v>0.005522952485845499</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.05385050776498481</v>
+        <v>1.824617890403353</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.005522952485845499</v>
+        <v>1.714132409894451</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.796362605166675</v>
+        <v>4.026983979417173</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.714132409894451</v>
+        <v>2.914169057958001e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.026983979417173</v>
+        <v>27029591.09778785</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.914169057958001e-14</v>
+        <v>4.344824747558916e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>27029591.09778785</v>
+        <v>21.29088401918652</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.344824747558916e-06</v>
+        <v>0.0001372379844632044</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>21.29088401918652</v>
+        <v>9.677903753982839</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001372379844632044</v>
+        <v>1.16347682479971</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.677903753982839</v>
+        <v>0.01285395954498607</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.16347682479971</v>
+        <v>2.88276830159122</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01285395954498607</v>
+        <v>0.9563443082485638</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.88276830159122</v>
+        <v>1.698523356090267</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9563443082485638</v>
+        <v>64</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.698523356090267</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.207560195072511</v>
       </c>
     </row>
@@ -5493,72 +5415,66 @@
         <v>5.386214148283654e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.4412705740837775</v>
+        <v>1.683149341551702e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.341087400082239</v>
+        <v>1.330705142400376e-05</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.683149341551702e-06</v>
+        <v>-0.05208309547201544</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.330705142400376e-05</v>
+        <v>0.05410385631013356</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05208309547201544</v>
+        <v>0.005639740481126984</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.05410385631013356</v>
+        <v>1.824105390354178</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.005639740481126984</v>
+        <v>1.686775396899767</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.793284182202718</v>
+        <v>4.068436654744188</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.686775396899767</v>
+        <v>2.855087544753936e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.068436654744188</v>
+        <v>27483921.93011629</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.855087544753936e-14</v>
+        <v>4.280939093983222e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>27483921.93011629</v>
+        <v>21.56635957433884</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.280939093983222e-06</v>
+        <v>0.0001316853603679869</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>21.56635957433884</v>
+        <v>8.367985609950646</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001316853603679869</v>
+        <v>1.260767468679196</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.367985609950646</v>
+        <v>0.009221028109636549</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.260767468679196</v>
+        <v>3.048962376477148</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.009221028109636549</v>
+        <v>0.9572594478114786</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.048962376477148</v>
+        <v>1.650811273981525</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9572594478114786</v>
+        <v>64</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.650811273981525</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2083800161940166</v>
       </c>
     </row>
@@ -5573,72 +5489,66 @@
         <v>5.36414312934218e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.4740629898131378</v>
+        <v>1.68807716926426e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.257913437067206</v>
+        <v>1.327894417696086e-05</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.68807716926426e-06</v>
+        <v>-0.05245105549432899</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.327894417696086e-05</v>
+        <v>0.0543573496351442</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05245105549432899</v>
+        <v>0.005705642189610632</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.0543573496351442</v>
+        <v>1.826544078288983</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.005705642189610632</v>
+        <v>1.663066184017426</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.797207972984423</v>
+        <v>4.154743934639472</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.663066184017426</v>
+        <v>2.737701042625615e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.154743934639472</v>
+        <v>28914792.73482935</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.737701042625615e-14</v>
+        <v>4.077256606591599e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>28914792.73482935</v>
+        <v>22.88896676234472</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.077256606591599e-06</v>
+        <v>0.000136473917594897</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>22.88896676234472</v>
+        <v>7.713142074732057</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.000136473917594897</v>
+        <v>1.448186258460978</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.713142074732057</v>
+        <v>0.008119182821704889</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.448186258460978</v>
+        <v>3.115904513185718</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.008119182821704889</v>
+        <v>0.9581183953395929</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.115904513185718</v>
+        <v>1.675080379057452</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9581183953395929</v>
+        <v>64</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.675080379057452</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2148152351901769</v>
       </c>
     </row>
@@ -5653,72 +5563,66 @@
         <v>5.344982157974075e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.5053437543334445</v>
+        <v>1.693668345171055e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.164937861564454</v>
+        <v>1.325077804644309e-05</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.693668345171055e-06</v>
+        <v>-0.0528114694197164</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.325077804644309e-05</v>
+        <v>0.05456475659641401</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.0528114694197164</v>
+        <v>0.005766378649937676</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.05456475659641401</v>
+        <v>1.830922541578618</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.005766378649937676</v>
+        <v>1.63538483154035</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.800853752891646</v>
+        <v>4.335256385714551</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.63538483154035</v>
+        <v>2.51446140028055e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.335256385714551</v>
+        <v>31465810.42961371</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.51446140028055e-14</v>
+        <v>3.756655261156526e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>31465810.42961371</v>
+        <v>24.89561257282705</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.756655261156526e-06</v>
+        <v>0.0001539669999699034</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>24.89561257282705</v>
+        <v>8.618613434666385</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001539669999699034</v>
+        <v>1.414297400009765</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.618613434666385</v>
+        <v>0.01143674536192235</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.414297400009765</v>
+        <v>3.020669489868375</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01143674536192235</v>
+        <v>0.9585889344594349</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.020669489868375</v>
+        <v>1.682258922104066</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9585889344594349</v>
+        <v>64</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.682258922104066</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2392510403306162</v>
       </c>
     </row>
@@ -5733,72 +5637,66 @@
         <v>5.324942586978585e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.5345143901164198</v>
+        <v>1.716428499570707e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.064238258926983</v>
+        <v>1.322240175625443e-05</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.716428499570707e-06</v>
+        <v>-0.05362050159028114</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.322240175625443e-05</v>
+        <v>0.0546411263271564</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05362050159028114</v>
+        <v>0.005860940711055427</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.0546411263271564</v>
+        <v>1.834004805693114</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.005860940711055427</v>
+        <v>1.637499290048515</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.802709035611362</v>
+        <v>4.645010560009242</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.637499290048515</v>
+        <v>2.17755732251718e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.645010560009242</v>
+        <v>37265658.62476809</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.17755732251718e-14</v>
+        <v>3.180314835843622e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>37265658.62476809</v>
+        <v>30.24037683946342</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.180314835843622e-06</v>
+        <v>0.0001930531701410007</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>30.24037683946342</v>
+        <v>12.13046203622768</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001930531701410007</v>
+        <v>1.05869286423842</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>12.13046203622768</v>
+        <v>0.02840740896370049</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.05869286423842</v>
+        <v>2.541958911907392</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02840740896370049</v>
+        <v>0.9583490684747497</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.541958911907392</v>
+        <v>1.636118843623774</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9583490684747497</v>
+        <v>74</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.636118843623774</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.3134856840784075</v>
       </c>
     </row>
@@ -5813,72 +5711,66 @@
         <v>5.299948974023304e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.5606067487446277</v>
+        <v>1.747272672718626e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.9579261344814465</v>
+        <v>1.319364171700581e-05</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.747272672718626e-06</v>
+        <v>-0.05469419666257846</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.319364171700581e-05</v>
+        <v>0.0545835716721937</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05469419666257846</v>
+        <v>0.005971000530415219</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.0545835716721937</v>
+        <v>1.854444187078432</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.005971000530415219</v>
+        <v>1.74194576968342</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.833586388476911</v>
+        <v>3.846635888749859</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.74194576968342</v>
+        <v>1.860745571314723e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.846635888749859</v>
+        <v>43629618.7035492</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.860745571314723e-14</v>
+        <v>2.723938832538157e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>43629618.7035492</v>
+        <v>35.42010376009311</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.723938832538157e-06</v>
+        <v>0.0002441073539967455</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>35.42010376009311</v>
+        <v>13.12309564812314</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002441073539967455</v>
+        <v>1.07474609845118</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>13.12309564812314</v>
+        <v>0.04203910404829898</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.07474609845118</v>
+        <v>2.295076483913238</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.04203910404829898</v>
+        <v>0.9588217517429942</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.295076483913238</v>
+        <v>1.642216045422578</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9588217517429942</v>
+        <v>74</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.642216045422578</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.3734047705181058</v>
       </c>
     </row>
@@ -5893,72 +5785,66 @@
         <v>5.266107607210863e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.5822902069562546</v>
+        <v>1.776586408486049e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.8486095712716644</v>
+        <v>1.316435007410158e-05</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.776586408486049e-06</v>
+        <v>-0.05620379357648794</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.316435007410158e-05</v>
+        <v>0.05419472492588483</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05620379357648794</v>
+        <v>0.006096149208304645</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.05419472492588483</v>
+        <v>1.911491051391546</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.006096149208304645</v>
+        <v>1.731797391409015</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.9162860333291</v>
+        <v>4.468478266222599</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.731797391409015</v>
+        <v>1.361164736675518e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.468478266222599</v>
+        <v>55942787.54452913</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.361164736675518e-14</v>
+        <v>2.154244740700024e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>55942787.54452913</v>
+        <v>42.59895005056216</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.154244740700024e-06</v>
+        <v>0.0002934585155290118</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>42.59895005056216</v>
+        <v>11.53494410040876</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0002934585155290118</v>
+        <v>1.452361565847791</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>11.53494410040876</v>
+        <v>0.03904610382616195</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.452361565847791</v>
+        <v>2.44216218167029</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.03904610382616195</v>
+        <v>0.9588894042120416</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.44216218167029</v>
+        <v>1.431409648383802</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9588894042120416</v>
+        <v>73</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.431409648383802</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.5848491441105592</v>
       </c>
     </row>
@@ -5973,72 +5859,66 @@
         <v>5.221739405883088e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.5985835186591841</v>
+        <v>1.799599436147555e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.7387864124951879</v>
+        <v>1.313453014772358e-05</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.799599436147555e-06</v>
+        <v>-0.05743626180985079</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.313453014772358e-05</v>
+        <v>0.05426948784328788</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05743626180985079</v>
+        <v>0.006244344672789185</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.05426948784328788</v>
+        <v>1.925621006101997</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.006244344672789185</v>
+        <v>1.931957929391591</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.946457793766941</v>
+        <v>5.196838961513293</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.931957929391591</v>
+        <v>4.225730162289065e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>5.196838961513293</v>
+        <v>176487167.6473456</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>4.225730162289065e-15</v>
+        <v>6.832180516824929e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>176487167.6473456</v>
+        <v>131.6218613449558</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>6.832180516824929e-07</v>
+        <v>0.0002755485910556461</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>131.6218613449558</v>
+        <v>11.25663241577657</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0002755485910556461</v>
+        <v>1.542648310526699</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>11.25663241577657</v>
+        <v>0.03491525061507729</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.542648310526699</v>
+        <v>3.070302973521343</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.03491525061507729</v>
+        <v>0.9587695567369366</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.070302973521343</v>
+        <v>1.280453562617722</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9587695567369366</v>
+        <v>73</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.280453562617722</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>1.799553688819375</v>
       </c>
     </row>
@@ -6053,72 +5933,66 @@
         <v>5.168523190617124e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.6098263780447507</v>
+        <v>1.822067628409463e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.6290245273575525</v>
+        <v>1.310437372248953e-05</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.822067628409463e-06</v>
+        <v>-0.0587081622630641</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.310437372248953e-05</v>
+        <v>0.05444961756314348</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.0587081622630641</v>
+        <v>0.006411716516463164</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.05444961756314348</v>
+        <v>1.929830711448392</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.006411716516463164</v>
+        <v>2.18752893208386</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.955624011602374</v>
+        <v>6.572066878253327</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.18752893208386</v>
+        <v>1.129290957094648e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>6.572066878253327</v>
+        <v>624888542.399271</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.129290957094648e-15</v>
+        <v>1.920441929317847e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>624888542.399271</v>
+        <v>440.9719590682955</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.920441929317847e-07</v>
+        <v>0.0001726672804899009</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>440.9719590682955</v>
+        <v>10.75548707672215</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001726672804899009</v>
+        <v>1.613633051028093</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>10.75548707672215</v>
+        <v>0.01997423773051477</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.613633051028093</v>
+        <v>4.770698180562749</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01997423773051477</v>
+        <v>0.9572308812635418</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>4.770698180562749</v>
+        <v>1.132707756014963</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9572308812635418</v>
+        <v>73</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.132707756014963</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>5.494405850094463</v>
       </c>
     </row>
@@ -6133,72 +6007,66 @@
         <v>5.103113673455711e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.614034312784465</v>
+        <v>1.843353595682403e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.5244229187311995</v>
+        <v>1.30738225597228e-05</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.843353595682403e-06</v>
+        <v>-0.06019906356299003</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.30738225597228e-05</v>
+        <v>0.05463074424364722</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.06019906356299003</v>
+        <v>0.006608803283403427</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.05463074424364722</v>
+        <v>1.932971985031109</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.006608803283403427</v>
+        <v>2.600262103320794</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.957430857213555</v>
+        <v>6.922920055005026</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.600262103320794</v>
+        <v>2.765949865235871e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>6.922920055005026</v>
+        <v>2505011197.92968</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.765949865235871e-16</v>
+        <v>4.795925780173061e-08</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>2505011197.92968</v>
+        <v>1735.655972773813</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>4.795925780173061e-08</v>
+        <v>6.871857933704072e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>1735.655972773813</v>
+        <v>9.912377403140049</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>6.871857933704072e-05</v>
+        <v>1.725252834125686</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.912377403140049</v>
+        <v>0.006751959528198556</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.725252834125686</v>
+        <v>6.688913630965531</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.006751959528198556</v>
+        <v>0.9579410228382419</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>6.688913630965531</v>
+        <v>0.9445466364907978</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9579410228382419</v>
+        <v>73</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.9445466364907978</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>10.58029930445361</v>
       </c>
     </row>
@@ -6213,72 +6081,66 @@
         <v>5.025142815876906e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.6103645854956693</v>
+        <v>1.85386994974106e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.4290680532778479</v>
+        <v>1.304300501996738e-05</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.85386994974106e-06</v>
+        <v>-0.06148151707740748</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.304300501996738e-05</v>
+        <v>0.05525894969992525</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.06148151707740748</v>
+        <v>0.006833938622952035</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.05525894969992525</v>
+        <v>1.930295599561069</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.006833938622952035</v>
+        <v>3.023570718135357</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.956966539092031</v>
+        <v>6.968340598073944</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>3.023570718135357</v>
+        <v>1.401314078579341e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>6.968340598073944</v>
+        <v>4932961715.443826</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.401314078579341e-16</v>
+        <v>2.43813759823834e-08</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>4932961715.443826</v>
+        <v>3409.973273483656</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.43813759823834e-08</v>
+        <v>5.609873753303282e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>3409.973273483656</v>
+        <v>9.729021358264506</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>5.609873753303282e-05</v>
+        <v>1.710142374883373</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.729021358264506</v>
+        <v>0.005309961857307444</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.710142374883373</v>
+        <v>7.0141177072007</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.005309961857307444</v>
+        <v>0.9585354627367786</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>7.0141177072007</v>
+        <v>0.7909056038216051</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9585354627367786</v>
+        <v>71</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.7909056038216051</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>11.70312738476124</v>
       </c>
     </row>
@@ -6293,72 +6155,66 @@
         <v>4.933666236594032e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.5975508962225883</v>
+        <v>1.860641706935198e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.3489076861211275</v>
+        <v>1.301204279171915e-05</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.860641706935198e-06</v>
+        <v>-0.06284954968041218</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.301204279171915e-05</v>
+        <v>0.05611627738461548</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.06284954968041218</v>
+        <v>0.007099568243965653</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.05611627738461548</v>
+        <v>1.929637043810704</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.007099568243965653</v>
+        <v>3.404931126419209</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.956530346236167</v>
+        <v>6.012727693042599</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>3.404931126419209</v>
+        <v>1.51871110913088e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>6.012727693042599</v>
+        <v>4498333696.054122</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.51871110913088e-16</v>
+        <v>2.673705973685082e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>4498333696.054122</v>
+        <v>3073.112846788212</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.673705973685082e-08</v>
+        <v>6.509717505219963e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>3073.112846788212</v>
+        <v>10.97425596575161</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>6.509717505219963e-05</v>
+        <v>1.370092227273513</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.97425596575161</v>
+        <v>0.007839932318925521</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.370092227273513</v>
+        <v>6.603629899463447</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.007839932318925521</v>
+        <v>0.9609578887660127</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>6.603629899463447</v>
+        <v>0.7743752463965268</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9609578887660127</v>
+        <v>24</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.7743752463965268</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>10.61554538356211</v>
       </c>
     </row>
@@ -6373,72 +6229,66 @@
         <v>4.825886280624625e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.5724479593536516</v>
+        <v>1.86540037149168e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.2956465275801978</v>
+        <v>1.29809969104963e-05</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.86540037149168e-06</v>
+        <v>-0.06441415034830053</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.29809969104963e-05</v>
+        <v>0.05722142351540905</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.06441415034830053</v>
+        <v>0.007424007007849879</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.05722142351540905</v>
+        <v>1.931960887991963</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.007424007007849879</v>
+        <v>3.114174429879914</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.955686596273048</v>
+        <v>6.058959579963344</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>3.114174429879914</v>
+        <v>2.267032379440851e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>6.058959579963344</v>
+        <v>3081836760.204808</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.267032379440851e-16</v>
+        <v>3.90769032156087e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>3081836760.204808</v>
+        <v>2153.163382091035</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.90769032156087e-08</v>
+        <v>7.450602133649043e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>2153.163382091035</v>
+        <v>12.25529294002101</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>7.450602133649043e-05</v>
+        <v>1.133707954010411</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>12.25529294002101</v>
+        <v>0.01119022363371161</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.133707954010411</v>
+        <v>6.146163683486322</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01119022363371161</v>
+        <v>0.9616128063793568</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>6.146163683486322</v>
+        <v>0.7656559498820735</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9616128063793568</v>
+        <v>10</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.7656559498820735</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>9.417147706309382</v>
       </c>
     </row>
@@ -6815,7 +6665,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.433089812728392</v>
+        <v>1.46815759303789</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.708367622611813</v>
@@ -6904,7 +6754,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.463956793524929</v>
+        <v>1.503871492659233</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.799072102443187</v>
@@ -6993,7 +6843,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.487905784137062</v>
+        <v>1.52948506412815</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.559585067318345</v>
@@ -7082,7 +6932,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.49993999730251</v>
+        <v>1.53985969880932</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.661763526806638</v>
@@ -7171,7 +7021,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.498726370551223</v>
+        <v>1.543156153164026</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.67017426838822</v>
@@ -7260,7 +7110,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.519308801917986</v>
+        <v>1.562570186421144</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.494831231013977</v>
@@ -7349,7 +7199,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.569829038676543</v>
+        <v>1.613612660746636</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.435502041332601</v>
@@ -7438,7 +7288,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.595947112339382</v>
+        <v>1.641670256983341</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.698652888173661</v>
@@ -7527,7 +7377,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.59697654681436</v>
+        <v>1.647286518330968</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.675514656698803</v>
@@ -7616,7 +7466,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.610992392106914</v>
+        <v>1.662246830188248</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.832763763041438</v>
@@ -7705,7 +7555,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.60514208253933</v>
+        <v>1.652970348857412</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.743821919340361</v>
@@ -7794,7 +7644,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.607821680312752</v>
+        <v>1.654509957527038</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.795427519787164</v>
@@ -7883,7 +7733,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.637190319051622</v>
+        <v>1.681079875271727</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.985757916473633</v>
@@ -7972,7 +7822,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.642383231482095</v>
+        <v>1.687406902869254</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.829406013543939</v>
@@ -8061,7 +7911,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.689322842914156</v>
+        <v>1.731514509195299</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.845720675342208</v>
@@ -8150,7 +8000,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.695756916435947</v>
+        <v>1.736820541284829</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.708173130066626</v>
@@ -8239,7 +8089,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.673189972063396</v>
+        <v>1.709496551280287</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.454241591363993</v>
@@ -8328,7 +8178,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.69563585116625</v>
+        <v>1.731652465052272</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.645767651336546</v>
@@ -8417,7 +8267,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.682119745224968</v>
+        <v>1.721517837406411</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.840511571663474</v>
@@ -8506,7 +8356,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.711849329265348</v>
+        <v>1.746823643753953</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.848324574384791</v>
@@ -8595,7 +8445,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.711643008344839</v>
+        <v>1.746497063518162</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.898505862037722</v>
@@ -8684,7 +8534,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.733541637148942</v>
+        <v>1.764904262891234</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.972102982755242</v>
@@ -8773,7 +8623,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.728918466150621</v>
+        <v>1.757622630285241</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.948827281692979</v>
@@ -8862,7 +8712,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.716264804758211</v>
+        <v>1.739781859109263</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.06769175098375</v>
@@ -8951,7 +8801,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.737051420511236</v>
+        <v>1.758455917379359</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.083898570462382</v>
@@ -9040,7 +8890,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.745222919322396</v>
+        <v>1.768502939403792</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.089932419826516</v>
@@ -9129,7 +8979,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.751920027968049</v>
+        <v>1.777229038521956</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.687284913688029</v>
@@ -9218,7 +9068,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.750155071233334</v>
+        <v>1.775779897252367</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.954791743093052</v>
@@ -9307,7 +9157,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.739282253481563</v>
+        <v>1.76203480359817</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.829334672156945</v>
@@ -9396,7 +9246,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.644798102471456</v>
+        <v>1.65480917979347</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.822666998933959</v>
@@ -9485,7 +9335,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.646845881173054</v>
+        <v>1.659300542774284</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.830587840490587</v>
@@ -9574,7 +9424,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.667266596075961</v>
+        <v>1.679059869807394</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.826795434590166</v>
@@ -9663,7 +9513,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.645065970073341</v>
+        <v>1.660346299584952</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.840804923668012</v>
@@ -9752,7 +9602,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.677662344777637</v>
+        <v>1.690247235333999</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.832712529028328</v>
@@ -9841,7 +9691,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.697329744897027</v>
+        <v>1.706991583288294</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.817367745240378</v>
@@ -9930,7 +9780,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.682045116414648</v>
+        <v>1.686574420793997</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.841849278515152</v>
@@ -10019,7 +9869,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.678421510440169</v>
+        <v>1.688356942441909</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.828147942914062</v>
@@ -10108,7 +9958,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.686415179487041</v>
+        <v>1.698081263675109</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.822172819193643</v>
@@ -10197,7 +10047,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.690517719596954</v>
+        <v>1.703956478720706</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.82497929505963</v>
@@ -10286,7 +10136,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.684516294267075</v>
+        <v>1.696189727748879</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.812842980873978</v>
@@ -10375,7 +10225,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.661836636196249</v>
+        <v>1.674298008892416</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.827365893729967</v>
@@ -10464,7 +10314,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.652239405596827</v>
+        <v>1.660245686789624</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.820669138877111</v>
@@ -10553,7 +10403,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.609329518865361</v>
+        <v>1.616249337073264</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.822937298121602</v>
@@ -10642,7 +10492,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.600502684762496</v>
+        <v>1.60331067231834</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.792182764733229</v>
@@ -10731,7 +10581,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.591315045182847</v>
+        <v>1.618243924037389</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.024955894951479</v>
@@ -10820,7 +10670,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.583532527301905</v>
+        <v>1.60859972659448</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.892516960021871</v>
@@ -10909,7 +10759,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.581653474289011</v>
+        <v>1.601501638232976</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.786857052209401</v>
@@ -10998,7 +10848,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.607376692629834</v>
+        <v>1.623040347525165</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.929373475068454</v>
@@ -11087,7 +10937,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.594395249734553</v>
+        <v>1.609778230850418</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.744750674089706</v>
@@ -11176,7 +11026,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.60004975503351</v>
+        <v>1.620316832240206</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.935090560830444</v>
@@ -11265,7 +11115,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.612818983957617</v>
+        <v>1.635357235033223</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.739229793484702</v>
@@ -11354,7 +11204,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.615625958620676</v>
+        <v>1.637729349680477</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.818981847629458</v>
@@ -11443,7 +11293,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.609700212038941</v>
+        <v>1.629562682006668</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.86986778992857</v>
@@ -11532,7 +11382,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.614551930564457</v>
+        <v>1.627751501235955</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.901762030646404</v>
@@ -11621,7 +11471,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.601715631071698</v>
+        <v>1.614073489415114</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.87128244197087</v>
@@ -11710,7 +11560,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.624867136776134</v>
+        <v>1.637577052078461</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.770387682906299</v>
@@ -11799,7 +11649,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.633506685322473</v>
+        <v>1.642192742593755</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.755310658736874</v>
@@ -11888,7 +11738,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.649902532105038</v>
+        <v>1.660361187224325</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.809497481747317</v>
@@ -11977,7 +11827,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.684580636580325</v>
+        <v>1.6939130822905</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.665804205431481</v>
@@ -12066,7 +11916,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.743812023448501</v>
+        <v>1.749548380082698</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.619719491159314</v>
@@ -12155,7 +12005,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.718753286468049</v>
+        <v>1.731042586473969</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.752884668689394</v>
@@ -12244,7 +12094,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.719975201905281</v>
+        <v>1.73752031448654</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.988987909709954</v>
@@ -12333,7 +12183,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.697183029545474</v>
+        <v>1.717931770326693</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.85969330608224</v>
@@ -12422,7 +12272,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.68644805796308</v>
+        <v>1.710908684705189</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.957109323247968</v>
@@ -12511,7 +12361,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.67855299798307</v>
+        <v>1.698676095778148</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.801128401979026</v>
@@ -12600,7 +12450,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.657192473954657</v>
+        <v>1.675498776700374</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.874593501819553</v>
@@ -12689,7 +12539,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.623392487220281</v>
+        <v>1.648144194761115</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.034474527560543</v>
@@ -12778,7 +12628,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.611984380912989</v>
+        <v>1.635979103907695</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.905552230600219</v>
@@ -13064,7 +12914,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.441817944471274</v>
+        <v>1.442160914935958</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.320500974794759</v>
@@ -13153,7 +13003,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.449436872799515</v>
+        <v>1.449608218880587</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.407671761400377</v>
@@ -13242,7 +13092,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.465151623622269</v>
+        <v>1.470860347379742</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.392014217614322</v>
@@ -13331,7 +13181,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.498416220054639</v>
+        <v>1.496621719812947</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.538955763090589</v>
@@ -13420,7 +13270,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.4918769337065</v>
+        <v>1.491851809215737</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.457742496935625</v>
@@ -13509,7 +13359,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.490887330385416</v>
+        <v>1.489085170477049</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.562929781717126</v>
@@ -13598,7 +13448,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.503081684329801</v>
+        <v>1.500213012464156</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.367741399577053</v>
@@ -13687,7 +13537,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.523393980234555</v>
+        <v>1.51821335902556</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.36961360266254</v>
@@ -13776,7 +13626,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.515896449285122</v>
+        <v>1.511840847157842</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.383672874688635</v>
@@ -13865,7 +13715,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.51230731641949</v>
+        <v>1.514641948391712</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.486705268172847</v>
@@ -13954,7 +13804,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.519113410367327</v>
+        <v>1.524501894329408</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.466414251571487</v>
@@ -14043,7 +13893,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.517368519456208</v>
+        <v>1.518767539644104</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.507439662458418</v>
@@ -14132,7 +13982,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.534292704395835</v>
+        <v>1.530978500985398</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.555710030134536</v>
@@ -14221,7 +14071,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.518543973378097</v>
+        <v>1.522786019805892</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.424034371366632</v>
@@ -14310,7 +14160,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.522872335711506</v>
+        <v>1.530092295611219</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.441246679614122</v>
@@ -14399,7 +14249,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.509045883300517</v>
+        <v>1.519237046257963</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.391639202060954</v>
@@ -14488,7 +14338,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.480202127322026</v>
+        <v>1.487618400405226</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.301379600489943</v>
@@ -14577,7 +14427,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.48639598338324</v>
+        <v>1.49365571436454</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.323663274341746</v>
@@ -14666,7 +14516,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.472366606841989</v>
+        <v>1.480563001918527</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.349571644924874</v>
@@ -14755,7 +14605,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.485343951836184</v>
+        <v>1.489599832532132</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.429653835710508</v>
@@ -14844,7 +14694,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.479530618637446</v>
+        <v>1.488030763313836</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.522298035658394</v>
@@ -14933,7 +14783,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.494741563925994</v>
+        <v>1.503853872362449</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.435872466680066</v>
@@ -15022,7 +14872,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.495523913913675</v>
+        <v>1.504143171006773</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.389739984608854</v>
@@ -15111,7 +14961,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.487872910144471</v>
+        <v>1.493018739384161</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.465442632005371</v>
@@ -15200,7 +15050,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.492660315402309</v>
+        <v>1.492057795534872</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.452228615361439</v>
@@ -15289,7 +15139,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.479285241857502</v>
+        <v>1.477755795194692</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.332595211024895</v>
@@ -15378,7 +15228,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.474808959201508</v>
+        <v>1.479636074029204</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.353088057415818</v>
@@ -15467,7 +15317,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.479154370804288</v>
+        <v>1.483179738144966</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.330590824491821</v>
@@ -15556,7 +15406,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.489804276592685</v>
+        <v>1.490893572507202</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.246628349579087</v>
@@ -15645,7 +15495,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.487515297063297</v>
+        <v>1.485177054941982</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.476538803979559</v>
@@ -15734,7 +15584,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.500771243340436</v>
+        <v>1.498374450440741</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.470288222894188</v>
@@ -15823,7 +15673,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.541980312779559</v>
+        <v>1.538479783802299</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.72108523624693</v>
@@ -15912,7 +15762,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.530722439356262</v>
+        <v>1.529903259331015</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.660676390753236</v>
@@ -16001,7 +15851,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.551633875721067</v>
+        <v>1.553578747571024</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.686581237979915</v>
@@ -16090,7 +15940,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.565289345707093</v>
+        <v>1.572601135277339</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.470356342204545</v>
@@ -16179,7 +16029,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.574455759933437</v>
+        <v>1.57670075330937</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.688212640675584</v>
@@ -16268,7 +16118,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.568876161450907</v>
+        <v>1.57384410261467</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.583175602430094</v>
@@ -16357,7 +16207,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.578941230026245</v>
+        <v>1.58597578439558</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.487172329393469</v>
@@ -16446,7 +16296,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.594684812806697</v>
+        <v>1.605293190417035</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.67365819023115</v>
@@ -16535,7 +16385,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.586344615330515</v>
+        <v>1.594725163366484</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.564408379045977</v>
@@ -16624,7 +16474,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.606602706112442</v>
+        <v>1.616853253140454</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.197782483583627</v>
@@ -16713,7 +16563,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.620425514455954</v>
+        <v>1.620399956137962</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.147374074124224</v>
@@ -16802,7 +16652,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.582339107836641</v>
+        <v>1.585570347516195</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.771929718740983</v>
@@ -16891,7 +16741,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.562068550107558</v>
+        <v>1.563549393326479</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.685427093323911</v>
@@ -16980,7 +16830,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.525647844558862</v>
+        <v>1.530624774610101</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.855649066299133</v>
@@ -17069,7 +16919,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.529947288266536</v>
+        <v>1.538581788865653</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.669096974962963</v>
@@ -17158,7 +17008,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.512213100684537</v>
+        <v>1.52108259674876</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.786988625876464</v>
@@ -17247,7 +17097,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.530269124736265</v>
+        <v>1.538511442532653</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.887066378899202</v>
@@ -17336,7 +17186,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.517877467237488</v>
+        <v>1.526830268077043</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.747937584847835</v>
@@ -17425,7 +17275,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.515505594551922</v>
+        <v>1.522240254728133</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.942931280201273</v>
@@ -17514,7 +17364,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.533159233642757</v>
+        <v>1.542976386584203</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.741242362987983</v>
@@ -17603,7 +17453,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.538985011377394</v>
+        <v>1.547847208206131</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.94607416923292</v>
@@ -17692,7 +17542,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.53312710713405</v>
+        <v>1.538646122844294</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.824123975658416</v>
@@ -17781,7 +17631,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.533456998497792</v>
+        <v>1.539632509761075</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.903963333994553</v>
@@ -17870,7 +17720,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.518824356283979</v>
+        <v>1.528801112083922</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.010139749875505</v>
@@ -17959,7 +17809,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.52193390817924</v>
+        <v>1.530910391344702</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.705675476916345</v>
@@ -18048,7 +17898,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.522314726992659</v>
+        <v>1.531203090851411</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.586313957592752</v>
@@ -18137,7 +17987,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.538815782633638</v>
+        <v>1.546359048179456</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.927285757353822</v>
@@ -18226,7 +18076,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.561132620272861</v>
+        <v>1.562308464923319</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.683670632109526</v>
@@ -18315,7 +18165,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.586777386437538</v>
+        <v>1.586697353444797</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.50814476430929</v>
@@ -18404,7 +18254,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.57565638821518</v>
+        <v>1.572029581204088</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.655817246642457</v>
@@ -18493,7 +18343,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.589632835072751</v>
+        <v>1.586973096477078</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.814879899077447</v>
@@ -18582,7 +18432,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.572057911865406</v>
+        <v>1.567367639422435</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.774570169231437</v>
@@ -18671,7 +18521,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.58183835301563</v>
+        <v>1.581188666130227</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.510899385919745</v>
@@ -18760,7 +18610,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.584570618242204</v>
+        <v>1.579826330643631</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.675971759644984</v>
@@ -18849,7 +18699,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.557981143941062</v>
+        <v>1.551783709034555</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.649518138551905</v>
@@ -18938,7 +18788,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.535591728718105</v>
+        <v>1.532432150807712</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.735227390044999</v>
@@ -19027,7 +18877,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.527286749709574</v>
+        <v>1.524232975613713</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.62740056284678</v>
@@ -19313,7 +19163,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.702646441636412</v>
+        <v>1.701881549125867</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.401509344324453</v>
@@ -19402,7 +19252,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.716957772979145</v>
+        <v>1.715939451396914</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.480901787611043</v>
@@ -19491,7 +19341,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.72918587902148</v>
+        <v>1.728495770643867</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.697229559488176</v>
@@ -19580,7 +19430,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.744346036061518</v>
+        <v>1.744690590497786</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.403790914103889</v>
@@ -19669,7 +19519,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.752784530458001</v>
+        <v>1.759146172057175</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.645184667835507</v>
@@ -19758,7 +19608,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.760832282034585</v>
+        <v>1.774159671427374</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.051152667039625</v>
@@ -19847,7 +19697,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.785009492987865</v>
+        <v>1.797482267124081</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.807563994417886</v>
@@ -19936,7 +19786,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.798403701939024</v>
+        <v>1.811059630703009</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.147061758729416</v>
@@ -20025,7 +19875,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.797516296875805</v>
+        <v>1.813725896690321</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.89490388984303</v>
@@ -20114,7 +19964,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.799204619035116</v>
+        <v>1.817652052084385</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.297864428096065</v>
@@ -20203,7 +20053,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.800998611712223</v>
+        <v>1.825519074620331</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.60996921084677</v>
@@ -20292,7 +20142,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.803360775470831</v>
+        <v>1.823956038538807</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.762161909383629</v>
@@ -20381,7 +20231,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.819541230429673</v>
+        <v>1.836133993785372</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.639721407426242</v>
@@ -20470,7 +20320,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.811500730246747</v>
+        <v>1.829282731834464</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.475503169786</v>
@@ -20559,7 +20409,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.823882950134966</v>
+        <v>1.843691682142906</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.748455574220002</v>
@@ -20648,7 +20498,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.834447970105013</v>
+        <v>1.855602454985785</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.501887992240133</v>
@@ -20737,7 +20587,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.828560003641622</v>
+        <v>1.848676481239412</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.352209721869542</v>
@@ -20826,7 +20676,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.826777224370505</v>
+        <v>1.850353782591622</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.2223676391572</v>
@@ -20915,7 +20765,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.818782895907467</v>
+        <v>1.83805421562323</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.66983967287283</v>
@@ -21004,7 +20854,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.825550621030039</v>
+        <v>1.836547319941214</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.485999604260769</v>
@@ -21093,7 +20943,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.819638192788477</v>
+        <v>1.828322264693226</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.487861948453419</v>
@@ -21182,7 +21032,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.829590286728748</v>
+        <v>1.830185577980281</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.677638830787164</v>
@@ -21271,7 +21121,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.829377613881282</v>
+        <v>1.832551751032166</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.977121477293326</v>
@@ -21360,7 +21210,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.827092697796654</v>
+        <v>1.819197601863136</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.988770807926592</v>
@@ -21449,7 +21299,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.839818244971317</v>
+        <v>1.831329491353888</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.393516332969497</v>
@@ -21538,7 +21388,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.838583780135323</v>
+        <v>1.827629943496027</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.838944049002716</v>
@@ -21627,7 +21477,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.83742652114371</v>
+        <v>1.831314000554707</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.109034275853873</v>
@@ -21716,7 +21566,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.836394622621073</v>
+        <v>1.827093354860672</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.703903629402515</v>
@@ -21805,7 +21655,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.837719968178917</v>
+        <v>1.828881531839653</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.09390508498991</v>
@@ -21894,7 +21744,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.831179764481893</v>
+        <v>1.815827811167862</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.917031171248485</v>
@@ -21983,7 +21833,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.832775635299353</v>
+        <v>1.815224508197798</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.706560351353281</v>
@@ -22072,7 +21922,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.841320731389313</v>
+        <v>1.820036480882481</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.030767561654514</v>
@@ -22161,7 +22011,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.838504993143922</v>
+        <v>1.815448595983016</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.056755303173009</v>
@@ -22250,7 +22100,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.856067580948765</v>
+        <v>1.830286327813874</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.890931588100649</v>
@@ -22339,7 +22189,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.860410801985007</v>
+        <v>1.832573135912492</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.670075098388121</v>
@@ -22428,7 +22278,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.856430045424302</v>
+        <v>1.82424084400854</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.677623597811265</v>
@@ -22517,7 +22367,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.850497270551956</v>
+        <v>1.820639708731964</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.985099124632145</v>
@@ -22606,7 +22456,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.850746521253984</v>
+        <v>1.813124641612866</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.919202407035023</v>
@@ -22695,7 +22545,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.848258939136831</v>
+        <v>1.809881479037898</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.793974290127723</v>
@@ -22784,7 +22634,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.845433627423539</v>
+        <v>1.801300006043721</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.317311431915586</v>
@@ -22873,7 +22723,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.842771792572836</v>
+        <v>1.794591600546324</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.080898031077343</v>
@@ -22962,7 +22812,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.84014536290458</v>
+        <v>1.78716149518236</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.070069551756295</v>
@@ -23051,7 +22901,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.831933460464396</v>
+        <v>1.779801100127459</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.874511194241316</v>
@@ -23140,7 +22990,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.819729197221404</v>
+        <v>1.768564433457779</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.510534488307908</v>
@@ -23229,7 +23079,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.807843651263138</v>
+        <v>1.757354002545656</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.428944263710668</v>
@@ -23318,7 +23168,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.825922252261711</v>
+        <v>1.778125849725864</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.492838623933599</v>
@@ -23407,7 +23257,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.822236829784012</v>
+        <v>1.769756506993434</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.414327133962276</v>
@@ -23496,7 +23346,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.826652880262037</v>
+        <v>1.768651011360778</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.459045846024926</v>
@@ -23585,7 +23435,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.822163529881152</v>
+        <v>1.768061948425337</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.384985922165307</v>
@@ -23674,7 +23524,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.818875497470508</v>
+        <v>1.76654097382465</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.558619027582623</v>
@@ -23763,7 +23613,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.82816554058994</v>
+        <v>1.780983313316338</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.465902330348848</v>
@@ -23852,7 +23702,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.833634047707664</v>
+        <v>1.783452633061674</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.57411300270976</v>
@@ -23941,7 +23791,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.828676883458857</v>
+        <v>1.782927087968747</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.248617912412142</v>
@@ -24030,7 +23880,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.83450530625819</v>
+        <v>1.789227040133207</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.478680400303746</v>
@@ -24119,7 +23969,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.817157310464212</v>
+        <v>1.776448331303581</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.417147294018926</v>
@@ -24208,7 +24058,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.822165871970401</v>
+        <v>1.784065755880224</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.323934887574181</v>
@@ -24297,7 +24147,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.824352861491745</v>
+        <v>1.789756638542119</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.219853307934876</v>
@@ -24386,7 +24236,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.829969995839384</v>
+        <v>1.791964067463191</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.229117295778324</v>
@@ -24475,7 +24325,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.838650266929838</v>
+        <v>1.800143903160278</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.290942183411258</v>
@@ -24564,7 +24414,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.843726074552307</v>
+        <v>1.810879252674365</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.491195119883249</v>
@@ -24653,7 +24503,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.821290320132797</v>
+        <v>1.788434919257736</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.791740708109765</v>
@@ -24742,7 +24592,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.821647169354095</v>
+        <v>1.789605765146149</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.69179835267132</v>
@@ -24831,7 +24681,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.812540730383601</v>
+        <v>1.784225809609145</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.380456887486964</v>
@@ -24920,7 +24770,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.808486046401811</v>
+        <v>1.777860636611003</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.228992113575506</v>
@@ -25009,7 +24859,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.806849848720712</v>
+        <v>1.772028026984386</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.089886686092946</v>
@@ -25098,7 +24948,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.789106500243058</v>
+        <v>1.757713178842537</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.743856090871816</v>
@@ -25187,7 +25037,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.778000252901294</v>
+        <v>1.753097553178707</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.723707827481661</v>
@@ -25276,7 +25126,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.783562412034589</v>
+        <v>1.756496823226369</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.807488493619108</v>
@@ -25562,7 +25412,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.739553152180335</v>
+        <v>1.720167950691049</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.536945114696716</v>
@@ -25651,7 +25501,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.745784495276415</v>
+        <v>1.723265743446407</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.319951437743304</v>
@@ -25740,7 +25590,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.757219326287515</v>
+        <v>1.732972901479862</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.309744252043058</v>
@@ -25829,7 +25679,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.760143305002221</v>
+        <v>1.735027466252817</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.805389633166012</v>
@@ -25918,7 +25768,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.765493385544459</v>
+        <v>1.741583440489147</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.515112315194733</v>
@@ -26007,7 +25857,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.771305981825778</v>
+        <v>1.758008643551719</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.260872886501502</v>
@@ -26096,7 +25946,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.793155929593718</v>
+        <v>1.773758769308175</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.078464481530535</v>
@@ -26185,7 +26035,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.809118565745062</v>
+        <v>1.790317478752775</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.703189206734231</v>
@@ -26274,7 +26124,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.816472540879007</v>
+        <v>1.798764766814766</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.483235470277351</v>
@@ -26363,7 +26213,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.815267635283569</v>
+        <v>1.802546306192444</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.019694949717247</v>
@@ -26452,7 +26302,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.808668967082474</v>
+        <v>1.797325563531437</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.749371160282495</v>
@@ -26541,7 +26391,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.802781185069709</v>
+        <v>1.786406627139311</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.114936353179287</v>
@@ -26630,7 +26480,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.802636249047557</v>
+        <v>1.785715920631289</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.165194103361048</v>
@@ -26719,7 +26569,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.802332380076206</v>
+        <v>1.792920513838818</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.230097321841329</v>
@@ -26808,7 +26658,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.807337402456175</v>
+        <v>1.802024527331222</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.087913599739743</v>
@@ -26897,7 +26747,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.812021055700794</v>
+        <v>1.806812003476444</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.744954857663934</v>
@@ -26986,7 +26836,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.814330895190288</v>
+        <v>1.809412113446815</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.682396192031808</v>
@@ -27075,7 +26925,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.811701638801165</v>
+        <v>1.801926461007251</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.469521516921181</v>
@@ -27164,7 +27014,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.813942477899241</v>
+        <v>1.803095224335397</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.99522983779277</v>
@@ -27253,7 +27103,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.807374919434701</v>
+        <v>1.796495456881903</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.423904940151509</v>
@@ -27342,7 +27192,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.80428005894763</v>
+        <v>1.785473036204833</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.073018048105649</v>
@@ -27431,7 +27281,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.79958680910026</v>
+        <v>1.783777101915422</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.849299087953724</v>
@@ -27520,7 +27370,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.799524051323636</v>
+        <v>1.7842569959165</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.960589108990379</v>
@@ -27609,7 +27459,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.796429109746021</v>
+        <v>1.78190398893015</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.227130651865336</v>
@@ -27698,7 +27548,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.794330241788627</v>
+        <v>1.775876213368693</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.147110473119184</v>
@@ -27787,7 +27637,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.801338218906504</v>
+        <v>1.776670892945396</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.937519398534599</v>
@@ -27876,7 +27726,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.805554500290281</v>
+        <v>1.788574866966093</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.121776311893101</v>
@@ -27965,7 +27815,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.812485380067484</v>
+        <v>1.790101540030746</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.246190435762621</v>
@@ -28054,7 +27904,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.808018773765115</v>
+        <v>1.777642742187968</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.966848194045506</v>
@@ -28143,7 +27993,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.814311730051118</v>
+        <v>1.779235894210031</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.020655873026936</v>
@@ -28232,7 +28082,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.821697620112446</v>
+        <v>1.781881078674042</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.486994193007543</v>
@@ -28321,7 +28171,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.815965746357814</v>
+        <v>1.777764460739996</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.411613142541835</v>
@@ -28410,7 +28260,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.816478058577375</v>
+        <v>1.782110851442716</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.58571090595688</v>
@@ -28499,7 +28349,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.825946521901598</v>
+        <v>1.792974302304952</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.249611303652322</v>
@@ -28588,7 +28438,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.83021135979493</v>
+        <v>1.797296798793391</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.492807425024962</v>
@@ -28677,7 +28527,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.82564855821801</v>
+        <v>1.79275557104719</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.10234013594762</v>
@@ -28766,7 +28616,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.829961066411549</v>
+        <v>1.794076626380831</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.082131653663461</v>
@@ -28855,7 +28705,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.828399112215098</v>
+        <v>1.786277108493457</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.647255548454167</v>
@@ -28944,7 +28794,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.831854457407019</v>
+        <v>1.791294330145961</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.646591065787077</v>
@@ -29033,7 +28883,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.839747643386262</v>
+        <v>1.796490954725768</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.079271666222144</v>
@@ -29122,7 +28972,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.836820463809824</v>
+        <v>1.792526369439814</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.621583806159875</v>
@@ -29211,7 +29061,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.830342006109487</v>
+        <v>1.785022586799883</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.711608652800011</v>
@@ -29300,7 +29150,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.819201179632182</v>
+        <v>1.775106698857724</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.610519965878135</v>
@@ -29389,7 +29239,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.805855368135848</v>
+        <v>1.767086529900475</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.780413104949309</v>
@@ -29478,7 +29328,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.794610076467603</v>
+        <v>1.749792602855164</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.952958856224509</v>
@@ -29567,7 +29417,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.795046658824816</v>
+        <v>1.751652876755923</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.884876341615549</v>
@@ -29656,7 +29506,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.804879490673768</v>
+        <v>1.762004813063744</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.018167326329121</v>
@@ -29745,7 +29595,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.804895333655301</v>
+        <v>1.765486157031076</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.653486492714929</v>
@@ -29834,7 +29684,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.804158510070358</v>
+        <v>1.767042869405679</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.997573716779179</v>
@@ -29923,7 +29773,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.800210172842726</v>
+        <v>1.765487464699207</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.156810745681964</v>
@@ -30012,7 +29862,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.813484903214675</v>
+        <v>1.777420911546095</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.978594780838366</v>
@@ -30101,7 +29951,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.817070354089469</v>
+        <v>1.778299916870899</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.11743324280283</v>
@@ -30190,7 +30040,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.82650478032027</v>
+        <v>1.78727746668973</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.643867665862298</v>
@@ -30279,7 +30129,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.826542974598568</v>
+        <v>1.786369113033115</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.30054235306744</v>
@@ -30368,7 +30218,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.813574392079233</v>
+        <v>1.779059341318332</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.901951500446529</v>
@@ -30457,7 +30307,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.820639122906083</v>
+        <v>1.786891994127622</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.997526049514102</v>
@@ -30546,7 +30396,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.817830500894315</v>
+        <v>1.784704677057928</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.766394931247571</v>
@@ -30635,7 +30485,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.821122087638123</v>
+        <v>1.788720207459678</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.190799535117749</v>
@@ -30724,7 +30574,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.833886566430626</v>
+        <v>1.800249411342174</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.035914535562418</v>
@@ -30813,7 +30663,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.843106076385302</v>
+        <v>1.81383964054849</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.94833376279392</v>
@@ -30902,7 +30752,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.836500347087239</v>
+        <v>1.80740134934148</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.048834146417462</v>
@@ -30991,7 +30841,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.825654405823479</v>
+        <v>1.794784927486559</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.509305445179701</v>
@@ -31080,7 +30930,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.829781080333545</v>
+        <v>1.792920868801663</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.287679191642044</v>
@@ -31169,7 +31019,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.822994927026824</v>
+        <v>1.783002575859425</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.153117751405904</v>
@@ -31258,7 +31108,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.819949378657292</v>
+        <v>1.780985368673301</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.102833870609738</v>
@@ -31347,7 +31197,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.801571199387574</v>
+        <v>1.768234293956958</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.755704308688775</v>
@@ -31436,7 +31286,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.787553676681047</v>
+        <v>1.757123930204487</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.87676813875522</v>
@@ -31525,7 +31375,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.777692213766703</v>
+        <v>1.749937270741045</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.198027811522419</v>
@@ -31811,7 +31661,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.554563702956928</v>
+        <v>1.534586583885229</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.770562000398993</v>
@@ -31900,7 +31750,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.57372973434587</v>
+        <v>1.553659923592465</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.64968822446264</v>
@@ -31989,7 +31839,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.596275431240191</v>
+        <v>1.574505602932309</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.455056937650415</v>
@@ -32078,7 +31928,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.625457570609704</v>
+        <v>1.594040752062119</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.615741681092203</v>
@@ -32167,7 +32017,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.616580129925214</v>
+        <v>1.586165992462772</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.648823434454592</v>
@@ -32256,7 +32106,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.616249256851001</v>
+        <v>1.584745069268669</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.699605681382394</v>
@@ -32345,7 +32195,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.621733237341282</v>
+        <v>1.589510221902851</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.787517795174339</v>
@@ -32434,7 +32284,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.625572185170843</v>
+        <v>1.588388355199532</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.89008839340087</v>
@@ -32523,7 +32373,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.624616110981447</v>
+        <v>1.590890299367315</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.818933786850507</v>
@@ -32612,7 +32462,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.613700934751402</v>
+        <v>1.585552208715046</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.875187119610239</v>
@@ -32701,7 +32551,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.618978213143716</v>
+        <v>1.588606962589213</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.689219906232156</v>
@@ -32790,7 +32640,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.622472276778811</v>
+        <v>1.591366337762879</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.807715303357609</v>
@@ -32879,7 +32729,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.629424380999936</v>
+        <v>1.598339185868171</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.971617934161673</v>
@@ -32968,7 +32818,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.622539704565803</v>
+        <v>1.585775609610649</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.784233941133948</v>
@@ -33057,7 +32907,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.602472561341892</v>
+        <v>1.577777871976989</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.757190618733973</v>
@@ -33146,7 +32996,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.61233466249382</v>
+        <v>1.586900948343806</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.703086161954618</v>
@@ -33235,7 +33085,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.603313335577443</v>
+        <v>1.578601678589797</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.600827857044073</v>
@@ -33324,7 +33174,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.601306851072182</v>
+        <v>1.578059136103975</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.72736559655983</v>
@@ -33413,7 +33263,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.609960694062343</v>
+        <v>1.586236029756438</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.742950602269133</v>
@@ -33502,7 +33352,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.613203878470805</v>
+        <v>1.594370171606384</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.742617192021352</v>
@@ -33591,7 +33441,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.619000500245573</v>
+        <v>1.598340947062049</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.536777924884724</v>
@@ -33680,7 +33530,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.630715658198031</v>
+        <v>1.612154691719685</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.57221554201853</v>
@@ -33769,7 +33619,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.610595440772618</v>
+        <v>1.59649091944849</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.946735686072132</v>
@@ -33858,7 +33708,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.61575259095616</v>
+        <v>1.595215106346675</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.912211856983102</v>
@@ -33947,7 +33797,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.618066284856309</v>
+        <v>1.596879482192406</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.894945158890831</v>
@@ -34036,7 +33886,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.61667177822051</v>
+        <v>1.599298042026795</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.474934828092644</v>
@@ -34125,7 +33975,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.618029733418039</v>
+        <v>1.603240691789892</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.836470089938836</v>
@@ -34214,7 +34064,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.616449108157482</v>
+        <v>1.599219230577362</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.688698616520947</v>
@@ -34303,7 +34153,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.641191908535514</v>
+        <v>1.622641679632318</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.692662449072317</v>
@@ -34392,7 +34242,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.641668144192963</v>
+        <v>1.622769540413866</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.283750900766309</v>
@@ -34481,7 +34331,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.636233012732041</v>
+        <v>1.613364349120605</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.883845963139978</v>
@@ -34570,7 +34420,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.646688003146947</v>
+        <v>1.622163614097846</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.259767661045004</v>
@@ -34659,7 +34509,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.649617185322201</v>
+        <v>1.627849011947169</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.281832770308536</v>
@@ -34748,7 +34598,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.651742365900536</v>
+        <v>1.629174601125442</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.165619115244888</v>
@@ -34837,7 +34687,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.651691135349148</v>
+        <v>1.628036635241253</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.126921571004562</v>
@@ -34926,7 +34776,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.649478422074021</v>
+        <v>1.622270208923955</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.220821447105792</v>
@@ -35015,7 +34865,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.657429122101212</v>
+        <v>1.632307712032894</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.032826798780035</v>
@@ -35104,7 +34954,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.679327573360423</v>
+        <v>1.650698906085363</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.085718293363439</v>
@@ -35193,7 +35043,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.670514948672428</v>
+        <v>1.646295045841599</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.009474427127036</v>
@@ -35282,7 +35132,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.687387237302685</v>
+        <v>1.660503793891221</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.359363815641579</v>
@@ -35371,7 +35221,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.686192930018794</v>
+        <v>1.659202339379934</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.487609592350235</v>
@@ -35460,7 +35310,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.694063338590678</v>
+        <v>1.658784497427904</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.961013529812186</v>
@@ -35549,7 +35399,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.684362610994316</v>
+        <v>1.645390987496012</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.887969372599323</v>
@@ -35638,7 +35488,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.650561775717003</v>
+        <v>1.621349430275856</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.729887187704392</v>
@@ -35727,7 +35577,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.637874917346683</v>
+        <v>1.611935649702618</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.765862949960256</v>
@@ -35816,7 +35666,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.646025397006932</v>
+        <v>1.626119002176409</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.952238359207149</v>
@@ -35905,7 +35755,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.641277310127412</v>
+        <v>1.620750294091548</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.059025004456508</v>
@@ -35994,7 +35844,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.630360831389508</v>
+        <v>1.607223310086465</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.079941525742734</v>
@@ -36083,7 +35933,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.631235058522207</v>
+        <v>1.610816383558386</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.731370645820068</v>
@@ -36172,7 +36022,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.634225022524765</v>
+        <v>1.618956075212413</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.092240882857355</v>
@@ -36261,7 +36111,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.636595355380148</v>
+        <v>1.622839536040647</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.932943641262312</v>
@@ -36350,7 +36200,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.631572399639492</v>
+        <v>1.620143458237106</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.016895269733687</v>
@@ -36439,7 +36289,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.630907268381426</v>
+        <v>1.615291501070709</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.91926287033112</v>
@@ -36528,7 +36378,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.635654431654771</v>
+        <v>1.621577436681449</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.088309341848914</v>
@@ -36617,7 +36467,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.621198462716252</v>
+        <v>1.603120398680952</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.03677265532175</v>
@@ -36706,7 +36556,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.619205678386544</v>
+        <v>1.600568511183331</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.838888950764878</v>
@@ -36795,7 +36645,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.614150611938198</v>
+        <v>1.603878054072253</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.775298201086201</v>
@@ -36884,7 +36734,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.63666488920477</v>
+        <v>1.622849421770452</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.741942519519581</v>
@@ -36973,7 +36823,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.658966341880561</v>
+        <v>1.638726649623565</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.129610658014283</v>
@@ -37062,7 +36912,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.667027089356003</v>
+        <v>1.640304487378972</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.092943278075012</v>
@@ -37151,7 +37001,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.665924999432076</v>
+        <v>1.631982529566887</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.226832816279909</v>
@@ -37240,7 +37090,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.667452081299753</v>
+        <v>1.632904819501814</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.041490323101634</v>
@@ -37329,7 +37179,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.685335638641202</v>
+        <v>1.647659739154888</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.055831956928057</v>
@@ -37418,7 +37268,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.692651440992379</v>
+        <v>1.649967058110075</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.402383404581366</v>
@@ -37507,7 +37357,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.699232130892171</v>
+        <v>1.649726584369255</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.556173486596546</v>
@@ -37596,7 +37446,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.693691124918439</v>
+        <v>1.6472870591361</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.334234382197782</v>
@@ -37685,7 +37535,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.686209253495584</v>
+        <v>1.640793273379115</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.046953683977469</v>
@@ -37774,7 +37624,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.683716511961427</v>
+        <v>1.640976568190726</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.42534770656945</v>
@@ -38060,7 +37910,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.362049506052671</v>
+        <v>1.381066247988084</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.428956858129947</v>
@@ -38149,7 +37999,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.391163892542571</v>
+        <v>1.41470365905677</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.374336693200871</v>
@@ -38238,7 +38088,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.429690572260095</v>
+        <v>1.456964138976023</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.253888253918854</v>
@@ -38327,7 +38177,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.446162061441542</v>
+        <v>1.471148320554299</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.392560968670932</v>
@@ -38416,7 +38266,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.447855601868789</v>
+        <v>1.474319919007002</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.442031389504305</v>
@@ -38505,7 +38355,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.474663132431402</v>
+        <v>1.499780789188774</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.265746670507135</v>
@@ -38594,7 +38444,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.536500356396634</v>
+        <v>1.563025690232655</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.255334134777536</v>
@@ -38683,7 +38533,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.562816253768347</v>
+        <v>1.593228076694838</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.563477356212466</v>
@@ -38772,7 +38622,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.567153032839829</v>
+        <v>1.601856944080877</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.467820716872503</v>
@@ -38861,7 +38711,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.576339771549708</v>
+        <v>1.614590793825605</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.54737947135571</v>
@@ -38950,7 +38800,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.577636682924816</v>
+        <v>1.614203263331629</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.617028674106463</v>
@@ -39039,7 +38889,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.581663846092462</v>
+        <v>1.618401673343242</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.715283786832879</v>
@@ -39128,7 +38978,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.61142720649276</v>
+        <v>1.646226956132949</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.749199717933245</v>
@@ -39217,7 +39067,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.613802843739537</v>
+        <v>1.648385313415691</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.729888216649139</v>
@@ -39306,7 +39156,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.67206357281079</v>
+        <v>1.707711565240552</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.704347836250127</v>
@@ -39395,7 +39245,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.666783657001931</v>
+        <v>1.704297309381308</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.741055907900541</v>
@@ -39484,7 +39334,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.643592543494423</v>
+        <v>1.675453194814809</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.425180360062306</v>
@@ -39573,7 +39423,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.66873295210564</v>
+        <v>1.70325518144907</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.476828301359952</v>
@@ -39662,7 +39512,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.648657886337607</v>
+        <v>1.686649075023803</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.613823858092209</v>
@@ -39751,7 +39601,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.669024181993452</v>
+        <v>1.710743558955869</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.69548154825246</v>
@@ -39840,7 +39690,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.671457014041682</v>
+        <v>1.712611979195245</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.641035387446945</v>
@@ -39929,7 +39779,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.697209290308582</v>
+        <v>1.734495879530771</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.812513542810768</v>
@@ -40018,7 +39868,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.701332862588623</v>
+        <v>1.7374424208912</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.541817298588624</v>
@@ -40107,7 +39957,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.680251586814916</v>
+        <v>1.713872772844785</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.681234738005487</v>
@@ -40196,7 +40046,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.707520273850108</v>
+        <v>1.735398682689018</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.741812533682237</v>
@@ -40285,7 +40135,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.70972773052659</v>
+        <v>1.738484583817073</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.552659535612511</v>
@@ -40374,7 +40224,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.712424752976816</v>
+        <v>1.741827049958471</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.514936135204576</v>
@@ -40463,7 +40313,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.713940908651808</v>
+        <v>1.742388023198949</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.583175110469225</v>
@@ -40552,7 +40402,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.691556098078431</v>
+        <v>1.71758648658682</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.655597938819969</v>
@@ -40641,7 +40491,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.668735370061908</v>
+        <v>1.701940291085781</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.549673594664648</v>
@@ -40730,7 +40580,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.673181334123095</v>
+        <v>1.704735577375939</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.581914698360162</v>
@@ -40819,7 +40669,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.708509011023189</v>
+        <v>1.742104998464752</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.94191355675394</v>
@@ -40908,7 +40758,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.672477934827093</v>
+        <v>1.709521201901476</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.842401964345171</v>
@@ -40997,7 +40847,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.710376094075943</v>
+        <v>1.747860137659235</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.807959895618596</v>
@@ -41086,7 +40936,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.754301223886329</v>
+        <v>1.787612768191188</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.724665075604733</v>
@@ -41175,7 +41025,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.724581746954728</v>
+        <v>1.755828773428323</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.839180382516584</v>
@@ -41264,7 +41114,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.714689494458527</v>
+        <v>1.752950004185485</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.695065127759827</v>
@@ -41353,7 +41203,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.718925216248148</v>
+        <v>1.756778748572869</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.703877784585865</v>
@@ -41442,7 +41292,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.742108973458917</v>
+        <v>1.78284371132318</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.746142076645316</v>
@@ -41531,7 +41381,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.725733305436681</v>
+        <v>1.766572644829731</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.727027810051289</v>
@@ -41620,7 +41470,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.689145184033314</v>
+        <v>1.731459056508521</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.685363199929022</v>
@@ -41709,7 +41559,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.683955294902277</v>
+        <v>1.722605342669391</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.898095320199971</v>
@@ -41798,7 +41648,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.606986904639536</v>
+        <v>1.636816614049432</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.559814211124852</v>
@@ -41887,7 +41737,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.596124649189938</v>
+        <v>1.626667499539232</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.454934623454907</v>
@@ -41976,7 +41826,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.516380001372777</v>
+        <v>1.548451097775873</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.626959070388038</v>
@@ -42065,7 +41915,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.508332171491935</v>
+        <v>1.538967110891838</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.654005507594117</v>
@@ -42154,7 +42004,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.499187136591665</v>
+        <v>1.52557995251863</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.501323376775975</v>
@@ -42243,7 +42093,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.5277663303455</v>
+        <v>1.551078699239671</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.561705381017693</v>
@@ -42332,7 +42182,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.516863077619197</v>
+        <v>1.540996950197378</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.61365939725576</v>
@@ -42421,7 +42271,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.517549969981426</v>
+        <v>1.542602735049172</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.583461608465446</v>
@@ -42510,7 +42360,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.536277888924829</v>
+        <v>1.558319703573876</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.489216206473161</v>
@@ -42599,7 +42449,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.541436706245657</v>
+        <v>1.565274103974193</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.647904754102988</v>
@@ -42688,7 +42538,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.540423599206569</v>
+        <v>1.562823772825614</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.594259269293417</v>
@@ -42777,7 +42627,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.540879368348512</v>
+        <v>1.562431401321531</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.564538236026388</v>
@@ -42866,7 +42716,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.532768665025951</v>
+        <v>1.555166570943672</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.624473673646505</v>
@@ -42955,7 +42805,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.555074453817418</v>
+        <v>1.580390767260001</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.516547738619439</v>
@@ -43044,7 +42894,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.552562121829003</v>
+        <v>1.570780943234355</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.648817562473814</v>
@@ -43133,7 +42983,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.577369354388169</v>
+        <v>1.602752474444687</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.457906013404473</v>
@@ -43222,7 +43072,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.616688417278275</v>
+        <v>1.640220851874179</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.568208272972135</v>
@@ -43311,7 +43161,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.691204587543961</v>
+        <v>1.71916564129952</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.560694771686103</v>
@@ -43400,7 +43250,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.662323761022876</v>
+        <v>1.700853935415078</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.776687460809291</v>
@@ -43489,7 +43339,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.664474197667037</v>
+        <v>1.704102317375387</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.812519283119917</v>
@@ -43578,7 +43428,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.638111144236648</v>
+        <v>1.679291133180348</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.789593037532818</v>
@@ -43667,7 +43517,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.627183391928655</v>
+        <v>1.669620486332734</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.81367086532085</v>
@@ -43756,7 +43606,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.628073963566099</v>
+        <v>1.669172369584052</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.809858289026819</v>
@@ -43845,7 +43695,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.594529414217875</v>
+        <v>1.632346070304098</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.758623734423319</v>
@@ -43934,7 +43784,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.554184653093431</v>
+        <v>1.597955370712349</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.850688479207777</v>
@@ -44023,7 +43873,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.538885377690804</v>
+        <v>1.577309714515027</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.886376751551422</v>
